--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 12-11-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 12-11-2025.xlsx
@@ -5771,611 +5771,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{B2829AE7-A74D-400F-AE66-63B476D5F44A}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{D35860E7-B20B-44E8-8CA4-4B1B338ACAA6}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{63FB1AFB-E7B4-4077-A161-4D07A674C948}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{762E51DA-800C-4708-97CD-41AF10E4FBD0}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{B3DEA2D0-F2F4-40D1-BAF7-42955DA6926E}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{0C2D17A4-4A63-462F-9A47-100516748599}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{634B5026-1AD3-4100-9D75-9896B0532E1A}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{91B20D39-2182-42D6-8C42-8D8980951FF1}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{15B0270E-851C-47F3-9187-E723353CC5C5}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{613F45BD-6CEE-418F-A12F-47ED8A84FCF0}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{00AC51BB-1343-4734-9F7F-724E0A3CDB44}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{CEA58D80-1836-4DC6-B51C-0A11B8CA8E0E}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{09483884-4013-41D9-AB8C-D53AFAD3D5FC}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{A0F02214-457D-4A5B-B977-40A6A8E80468}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{1E52BDD1-0E7A-4D09-BBC4-9CB1F2777025}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{18FA58EB-2B74-4D22-9A8F-DD51D5BCA919}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{FE04D9A9-2664-4DCB-9722-008E7D72DE23}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{CC3C1389-DE43-4E42-BC3B-3FC10C18EB06}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{3CB63089-DBA4-4DEB-88C8-56D42A5581A0}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{A11D4D20-D186-4C70-80F4-09B66846C7EC}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{3EB45F06-D96C-486F-AECF-E766DBCB6ABB}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{60DDD435-3BA3-4AE5-9356-DBB4BBFDEAC0}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{FA406FC1-C861-447A-B922-03056E668164}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{A8445D01-30B4-426F-88CE-BAC9900C06C3}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{A945496D-F89F-46FE-B31E-6E57B428983A}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{A3A19290-449A-4765-A5DA-809E2A5E37C1}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{29BA8A4C-3885-4791-97DB-25D82AD12BD9}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{45F463A6-8CAB-4CD1-A82F-184A1FD31731}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{587CA58A-9DC1-4E48-B49F-9848CED122F1}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{A9CAA724-03B2-408F-AF6A-B2D39D6A7786}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{F41A8CE2-1C4D-4A87-BEA4-E022EB8BA758}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{643FE77B-2590-431F-9527-293C0B52E57F}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{7E44F39D-358A-4DF3-84A5-E3E1F06D52EE}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{7E8B3B91-7DBA-419E-BB72-2AAC54042FD3}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{FC57A012-1D66-4A59-A7BE-F8897AC27393}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{3B56FF64-35B0-4520-9E05-BEB5E23CF482}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{7AFD7E44-1638-4238-B72D-EA20985EADED}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{235DB49C-9F5D-401F-8B66-B5DF63FA3D17}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{6448EDD9-5DE2-4D2F-8C34-AE3B550AEF27}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{5876BE09-0D16-4542-9AE7-DBC370BD89AD}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{EC076A16-E724-4C29-84AC-4E69FC805B94}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{3D8F1FEB-E745-48AB-ACEC-9613C7E962E4}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{A50F6620-F323-4797-976F-6A6A5FA93447}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{4EFFF837-252B-4A98-B930-DF707A32593D}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{4C9A07DC-BB2B-48B0-84B9-6C33DA1BC45A}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{708892D2-E8BC-416C-AA31-6553FA0C153D}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{489039DC-B6F9-42D2-BC67-5FB60D8CFD33}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{0AF0AD07-8C7E-482B-ABDF-5907552965E6}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{A13EFF11-E26F-49DB-AE0B-7F806CE975B6}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{717086B9-A137-45E4-9896-AF6DAD36D452}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{53BAA318-AFF6-434D-ADB6-890EE4DB6D0A}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{E4C26DF1-45B5-4335-8CB5-7F3BDFFDC6A8}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{C5AFCDF2-E68C-459B-863A-2C65B04BCF10}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{818B5904-F61E-4495-A445-B554849F8D48}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{4DF9769E-9A74-4116-B3CA-61CD3ABD5D20}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{7658C187-588F-4144-8844-903FD9BE7FF1}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{C6C5EEEE-69E3-40E7-BC40-2413B820C6D2}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{B21F29BE-6FF8-4745-BE2A-98174DF6DBBE}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{28050E9C-C7FF-46F0-97B8-CA9C2ABFD666}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{AB7EF965-FEF4-43AC-8836-88A8EF8AC8A2}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{7036CF4C-5EFE-4C99-B171-57DD2D4F55ED}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{608FAE8C-C2DD-4A15-A4BF-7C333704EEDC}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{8C0126A5-51E6-48F3-BF89-F166B441A5EE}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{B608B385-3064-454A-852B-40F3CFF17ED0}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{C8FC20B6-EB14-4598-A01D-3BB6FBBD7A2A}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{FFE89C16-9EBC-4D86-954F-9FA87C9DF07D}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{ACB511CE-52E7-4CB8-8662-7850A4B25AC5}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{E65CB35F-22C1-4753-92B0-EA8D65269F5C}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{F5579DC3-5D4E-4D40-A7CC-3F977CECBF6E}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{643A8BF5-C212-49DB-A510-55FE53818B94}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{FC6FBF21-DC87-4F62-8088-E764C5009E09}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{7BE7AD5A-7762-49CC-985C-E9EB730021FE}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{08E4F5A0-5665-419F-ACB7-D4FEF2731EBE}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{B2359C66-AAAD-41D8-BA6D-06823DCDFF0D}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{941FCA32-AA0D-4B8D-9CB9-54BBA79DA5AE}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{A1F4253C-5B8C-4C32-ACEA-617767B5DE50}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{EE8D8D66-5395-44F6-B684-F707F37C0DB3}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{F3085D5B-93C2-43DB-93A9-3203B916E721}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{D9902C95-F347-4EC1-947A-6E01ABD71823}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{9228CA63-6C93-4438-A230-69D168997B9F}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{A385A640-DE42-4257-BEED-ADB9B95CF693}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{AF8C1E54-C33A-474B-AF9D-C96BCDC72A95}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{7458A350-4254-45F9-A226-01D91329B48D}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{5447F70F-8118-41F4-B965-971177FD9C82}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{89DEEF09-83E2-40DB-8486-7A8D3E696E07}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{DD70EC6F-3E77-4852-8ED0-C9CA847B5377}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{3E481EDA-D5C3-4020-832B-F062005D1C6D}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{1B5E2F06-581E-4F15-88F6-0D7B72805C8F}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{3CE93409-5055-48DA-AA03-6E42A0D7F636}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{8A9EEA5B-828C-4FD0-B93E-263635856149}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{35B55628-1BE1-4DB0-96FA-8F0747361563}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{1D697B12-A373-4333-A591-B8EB48A678BB}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{87E61A6E-9253-461D-B51D-0E831C932C29}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{18D4FF3B-BB90-4D39-81F3-FE17A78C578B}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{92C9E7B1-1F12-464A-940D-4907AEFCE045}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{1CFD74E7-2459-4662-9D28-D0771A285A0C}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{5A49ED5D-9971-4549-A097-FD4D3D184E5E}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{13BEF740-4C03-4682-A335-C27E384E29AF}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{E067CAB9-724D-4D67-BB24-C9F1651A062D}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{A7D6866B-92F2-48E9-BEE7-038ACFBE84D1}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{C395A003-B5E5-4592-AA5F-67CD9E2B3BC2}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{A80E77A0-FEBF-4325-9B94-192F67F93AD3}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{B97EAD29-5F92-4D12-9599-0F21E0D9C9D9}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{531BFD77-3664-4017-841B-542A620F8B53}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{1CA22986-2DC4-44C8-BAB7-25E6B4387D2A}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{971A0D6E-B522-4894-9A79-293C8CD3EA4F}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{FD2B08A9-88FE-49D8-8F4B-C71F4258090C}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{7A823830-0A3A-4D0E-B08E-9294F4B00F88}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{46C874F7-BBB6-44F4-977F-81ADD9C29C5B}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{9331153E-1405-423C-89C8-141305B3F29D}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{411AC8AA-EDA3-4E3D-B50F-62F262A66343}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{CC905620-7EAE-4D60-9368-D4E2C736DFC8}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{4F0AD987-5500-4642-A206-26900C79E46D}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{D7276F27-C8B2-4C8E-9822-147C35C9A565}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{C086A297-4A45-43C5-9C2F-5A611E05DA56}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{784057B9-36FE-4699-93D5-82809C1F90BB}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{464EFDD9-829F-4376-A6F7-CC8FA090FE9F}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{DC895EBA-4820-4AF8-9651-D59C7AA06585}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{EAA63142-D0ED-4636-9304-610E090DAF6B}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{56C353EB-5BB0-467C-9AA8-4C7826C05165}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{ADB6BAFB-50CD-4B00-9E09-4B1065F2BA0A}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{4DDD172F-4B83-4F4A-A6AA-D6C7750C014C}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{7263697A-42D5-4622-9767-E0FD3C8F0A93}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{FC76995A-3248-4668-83D8-298EF024F134}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{997F1593-F04E-4B6C-ADDF-90C2B881D709}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{E30EF175-9DAC-4621-9E16-E025CB3F4CE9}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{1AA3DAE9-0008-4BF3-8E51-C1548FC0FBE4}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{31153EA7-309D-4900-8D38-C9009447A6DC}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{450D9893-F4DE-4B17-828F-A61B2C0CD514}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{666FB8DC-9914-4EC0-B9B3-8D6C52559E67}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{3586BB7C-64CC-40EE-82C5-88E64BF73D41}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{46390582-1270-4A71-9113-2D3D9260BD3B}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{A5ED4811-75E1-45D7-AC4B-D8DE4AAC9842}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{75997DA6-4CC7-4F95-AD67-BB65E3DDFC72}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{3F533427-C8AA-420A-8BC2-7C44BBFD68FA}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{8CF0065E-CC50-4F86-8F2B-955684DAB960}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{1914CFAB-65F8-469B-A0AB-D7773C3B310F}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{1A6A6C8D-611B-42FF-A452-5C17CFE8B37A}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{91EF9E0F-117A-47FA-84FE-54E147DD7BD1}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{0BB41AD4-3ED2-491C-8CCA-3E34CD8C99C9}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{DD1E488D-6E23-4470-8F0E-30B2B6CA8237}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{2F8F4444-DD76-4B3F-824D-92A1934B5302}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{C02E01B0-B967-425A-9B70-3BB20885609C}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{39FCB187-CEED-4544-9EEE-B276BFE9C724}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{D838E699-4ACE-491A-B382-5E5843B30138}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{83801349-AAC6-41B7-840C-2BF0DC7F1193}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{B027AF03-0BDA-4EDF-872B-62F9DB2FDC73}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{2409AA8D-1C00-4100-B6BF-54120B2965C3}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{B3970417-F9FC-4D85-AEAB-AD2865A5AF59}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{22BD190B-3E48-4888-903F-5201D222C194}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{FB60613C-523A-4F55-AED6-AB829DF2E08B}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{909A4E77-F927-4D4E-A8FB-58DFBCCAC527}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{62ED7ED5-8834-4E08-9A6F-E24D78E3CF2A}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{79E7CDF5-E127-4C7D-8E00-C23014442367}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{E08E9E6A-C280-4251-A351-3881078728FB}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{1F5DABB8-3D09-4570-BC3F-D76B230B63E9}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{C35939BB-C00D-40D2-AFBC-C8AA226AC809}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{760C3E31-D1C1-4002-9808-6D4B0734A36C}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{F976AFE2-866E-4995-A68C-F1CD0497A2FC}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{F83B0BC5-6B2A-4F86-922F-80C7BC77DC51}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{8D9DE831-513D-4EB4-96BE-CCEB2FF9635E}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{6266B726-7D72-41C7-B370-26D01171F643}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{EBD9EA73-56D0-4A92-A60E-31497220C047}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{BD04CD21-9216-426E-B376-DE68CEC98911}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{68D09430-DA75-4551-8E01-72C003332428}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{04AC0F4E-7CC5-4C02-A089-0D23687048DF}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{8497BB07-6462-4B79-976B-C2F17735C95F}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{F98367AE-81C1-49C4-91F6-AEF418388B30}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{CD10E589-FD29-4B01-99B2-49584F913E39}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{F499BBEA-4814-4817-9A27-3838A2F5EB7F}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{082A5EC5-9285-4D48-8DDA-B87C02DD3F80}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{7C892333-505F-419C-AA47-8B3873E626E3}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{65264BDC-3094-4BF6-91B0-60C6FD9F21E0}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{F8A08813-5407-4D8A-9E77-1AA7E68B0954}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{B6E36392-0988-4EFF-AA0D-D1C2B613B01F}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{5EE76C59-87B0-4C94-BC16-B716CF1F3494}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{088A5811-B0EC-417D-9065-CE3ED1D3BF14}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{C259D661-CA0B-48B3-A629-30A54BFA9A26}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{EF572713-CAC4-4FEF-B0CC-999C690F1846}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{193867EA-635B-4E59-BA4B-E240A6800D36}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{D9BF7A61-90BB-44B2-A241-67FA48DAD41D}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{275DB74A-748A-4570-AD51-E9111F64AE0F}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{62E475A4-5751-4824-BC7C-56628D74A031}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{9F1363BE-FF79-423F-92EB-22F0DEB68A87}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{87EBF5C3-9268-403C-A9FF-E573BD60A0A3}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{12D892F8-E74D-493E-B9A9-3FBE088B69D1}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{258EBA91-AC9E-42CF-AD42-D7A484E8EC97}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{4032FBDA-FB95-41DC-B48A-88DD2974E4D2}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{3A63C5CD-B5A9-4536-9C97-E6825A1B84CF}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{AEEE2B86-955F-41DC-9C11-329794989FB9}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{B9DBB460-F5B3-4E4B-AD11-39521990593E}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{5B5B465E-4FF0-4E86-ACE4-82ABA623CC9D}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{A0BD3DB0-C010-40DC-9B1C-3C398B2ED32F}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{86B3FFF3-3413-48B6-9CF8-5AA021D8BC81}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{2C1685E5-A702-45A9-B9A0-A02426BC736F}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{2A9AB97D-03CC-42CD-9854-793440D9BA78}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{3EA2B519-9088-4B77-9039-C55A75A06B25}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{092E904E-7E1F-48FE-A91A-23EA54872B5D}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{293A0427-6299-4BAE-848C-46D346B9EC7D}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{5FF9D903-3AB1-4512-AF79-2B7776A0B082}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{1D17C172-2CC7-4BE0-B7AA-A41CBB9B503C}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{ECA682C6-61D7-4F96-8F8E-FDE8B290C560}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{6373869A-1899-43E1-A882-A575874181D5}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{1FFC2CCC-2304-4257-993B-FFAC81D7D055}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{B6D66FED-A672-4832-9AF8-C7AF453B8BE8}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{8AD57DE4-0AB2-40DC-A1EA-3004F6525184}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{C249FF5C-0974-4013-8599-F380ABC73A8C}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{8C94C68C-C2F1-4958-8499-36D47577185E}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{69FE2C81-4808-448C-B8D1-DF7CFCED0182}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{F8996CE5-619B-4B55-84F2-970EA29E596A}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{10C62D1A-F06D-4172-832D-97F3E49EF4F9}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{00766281-77C4-4D6B-9870-1B507D773E89}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{FDD9D8B7-AA97-42BD-8BE6-65433CEFD709}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{9E1572C5-8D2C-4FD6-AC09-467938F927D6}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{802A5C27-FB72-4F97-8DF6-C6F620362D4E}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{467BF8EB-D1F0-4104-B69F-994A30CD15F5}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{B79ACFC6-87EA-45D1-8263-214AED67A7BF}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{0FCA1933-EAF3-4A05-8E63-9EA2F8A3565A}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{53C44F39-EE31-4516-9E8C-BE231DDA01C5}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{08E43F68-E855-4BB3-AF77-5AE24101A247}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{374F6E2A-FDC0-42CB-9503-F30EE3CF6992}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{3300FF3B-D6A5-478E-BD3C-DAA62950B51C}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{D54E28E3-F38E-4406-A191-9C803165EA5F}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{FB4C4CC0-9910-40D9-876E-DDFD7A627F12}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{5EB343B4-0798-404C-BCB9-5338E7DE6A3E}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{E5390B78-F0F4-4339-8A18-5B9D65FDA869}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{25A47E33-B2B0-497A-B772-E1FBA93CFB03}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{87148867-B5F1-475D-AEF3-F4A87C061035}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{92C39CE9-53E0-4EE1-B655-0BED79D82A6D}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{BDAF589C-F52F-4E48-A152-4CA713D04276}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{E3E3CC54-3D37-489F-8E8C-249C9AA24552}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{0420A060-DD85-4AE1-B2EE-97AC0E0FC2AC}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{1A7B7AC1-6BA3-4693-8CB9-99964A8AF149}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{A4DC2EC0-F771-4BE0-BEDA-8A0317A43811}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{0DA12DBC-D601-44D0-A123-DFDF21DB63BC}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{B31E26D4-D386-4267-A37F-04909849FF67}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{4EEC71C0-1D24-4F58-A630-11BD8C32B55B}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{FE6704E7-1BAA-48F1-A503-D773960AEC82}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{52927C55-1C62-4582-890B-FEC4BA450D70}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{360510DA-73A9-4131-84C3-6BBF4F1CE255}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{D29EF4EB-F3A3-4268-BD1B-8BC74FC2E347}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{E5A17B4C-63E1-4AB4-8F2C-DF13C27E23B3}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{983081D3-1CFB-4F09-A91E-C42A7BCB364D}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{9265C4F0-7D41-4287-A35E-0A54B16374FE}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{578B90AF-81F9-4E8A-9B63-CD9BEC51A1FD}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{B8D1DC0B-F957-4EB6-92EE-46E3019BF54D}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{89B4BDC1-F539-4124-8FDE-8B07D8FC0E94}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{611A80D4-F9F8-4D21-B90C-600596318B20}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{0B2F616B-55A8-4037-9424-DE49BF381912}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{DFD64607-D74D-4E31-BEB1-655E2588F0CF}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{674A46A2-EA2A-4B07-9BA9-44270C1B7488}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{193666D6-17B2-4A1A-B080-128413DFD1F4}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{305BC729-EE4F-4E6C-BF22-185814F2260A}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{42BCFBE4-88D8-4DB6-8516-85F4DCD5DC95}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{1BD33F56-E13C-46D2-A4BD-18988EC9A1B0}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{AF5BCFD1-B7B6-4B0A-8B5D-DB0BF2DE0D69}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{FBD1CE5B-A625-485C-9189-106A974EA03F}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{F7F40A65-8277-4704-A9ED-B40C64C65902}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{DCE1E11B-EF98-4CF6-800F-6B9BA1A3CBC9}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{BF234BFA-8610-4C39-9F64-1B18663B230C}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{75DB25BA-E57C-4498-8E9D-B1071C13CD55}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{A4FC3E77-6083-4E70-967E-46DE27F0CA92}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{1311E693-3486-4CF3-90BF-E7F5DEF02D2A}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{8D1DD04C-9B7A-4071-95D8-0E6D62FCEB16}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{605BEB69-1664-4D0C-8AC0-00CC229795B0}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{75D5C967-85AB-4DF7-B31D-45E5957131BB}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{BBCA70DF-EECF-4651-B10C-A546820E4E08}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{A311C967-C40B-4E26-B0CB-C3FF722D486D}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{65BD4530-9721-47B4-921A-EEB64F7D52DA}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{9BCFCE53-8A88-4DDE-B3BC-25CAB017F3B5}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{15640291-CA8E-4C5E-89CD-8D265CECC9AE}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{63EEBDFC-BC7A-4E95-B80D-F3690D8646A4}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{9F008695-473F-4CCF-8C58-4CA6E477D004}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{39620D65-C74E-428E-A613-804C666F6739}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{2E45FD64-5240-4DAC-8279-7C8FD6047115}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{3326A6F6-6824-4AC0-8CF1-4C85A946E711}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{6B2DD9DA-10CE-4DAD-95BD-39029CD772F6}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{8B593B5F-9868-4F08-8493-9B7FA4468C2A}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{FF367A93-6678-4245-B675-A3CDBD2DEE10}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{CBA413EA-C740-4000-BA82-B951085A48B1}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{2A4B75DE-96F8-4EC8-9F8A-C58907988F62}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{5A46B096-F21F-4A7C-B0FA-3196E2407DDA}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{5A19BDEE-0558-477A-B7D9-73B87E88A1F6}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{6D902925-396D-46D5-9CD7-3296D1051CE4}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{834A4EE7-5A88-4B11-8E01-BCFBAF5105C4}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{54D9A946-FB6E-4C19-B8CB-CFDD1F1C2426}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{8809D155-D164-4989-879A-34785145B50B}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{9AEBCCE5-3FEC-46CF-BAA4-5DB0AE296AD6}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{E358B9AB-7ADF-4020-9EAA-9110A405B389}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{9D2EF06D-91C3-401D-90A9-808BD07A26EC}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{FD477C82-00C5-4228-9A69-6437BBBC4A0F}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{4BCC51B9-5B2B-4EC1-89BE-B90A289E67B7}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{DE38A48E-113E-4343-A550-FF8C8FB51C75}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{7DD88080-3AB0-43B7-B68B-8991EA413F01}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{8FAF0C6B-24F1-4321-858E-1279F932D620}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{77706531-8CE9-408D-BD26-E8093771AB43}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{BFE5E2AE-BD87-4CBE-90FF-7CFFD35899D9}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{6C4B7F20-43A4-45DA-A620-1518DF81C14D}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{886D3870-F559-4876-A4F1-E75B6796494D}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{1F44497A-1F50-4CBE-9A36-E9BE08EF65E5}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{5B291FC1-C02F-4C76-8795-1371538C8A9A}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{B6C27A6A-2234-4509-9065-C9C426D1B4C7}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{919CE7DB-81AB-437C-B9C6-0D5AAFCEF8F0}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{1C18836D-B4D5-4E75-9F23-2AC3B0325515}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -18989,7 +18989,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="C269" s="14">
-        <v>0.291666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="D269" s="15" t="s">
         <v>317</v>
